--- a/spreadsheets/for_coding.xlsx
+++ b/spreadsheets/for_coding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcbarnard/OneDrive/Projects/corporate-veil/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="11_E9821890788ED77FF7328B392E9186386B5B2F66" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{87ADCB2F-89E7-7E45-A72A-BF2DD82E1736}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="11_E9821890788ED77FF7328B392E9186386B5B2F66" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E2ED39FF-4BF3-424A-9359-C3E1CF5A3352}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:E231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
